--- a/results/Homeopathy_excluded/mod3.corrupt_salienceBYhealth.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.corrupt_salienceBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0263701392200471</v>
+        <v>0.0263699637592035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0289431823252699</v>
+        <v>0.0289430342330747</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0303574557354581</v>
+        <v>-0.0303573409409327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0830977341755523</v>
+        <v>0.0830972684593397</v>
       </c>
       <c r="G2" t="n">
-        <v>0.911100200513325</v>
+        <v>0.911098800037669</v>
       </c>
       <c r="H2" t="n">
-        <v>0.362242580817835</v>
+        <v>0.362243318656145</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.151026256059181</v>
+        <v>-0.151024908215102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0641478580890777</v>
+        <v>0.0641473589632984</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.276753747599159</v>
+        <v>-0.276751421486529</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0252987645192023</v>
+        <v>-0.0252983949436744</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.35434604612147</v>
+        <v>-2.35434335342645</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0185553282227073</v>
+        <v>0.018555462651818</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0827305370151697</v>
+        <v>0.0827295005947634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0252919429409243</v>
+        <v>0.0252917688570979</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.033159239751916</v>
+        <v>0.0331585445295397</v>
       </c>
       <c r="F4" t="n">
-        <v>0.132301834278423</v>
+        <v>0.132300456659987</v>
       </c>
       <c r="G4" t="n">
-        <v>3.27102339303895</v>
+        <v>3.27100492900266</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00107159045898457</v>
+        <v>0.00107166042586275</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.041925579823964</v>
+        <v>0.0419254438611348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0230696019768325</v>
+        <v>0.0230694407634826</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00329000918830159</v>
+        <v>-0.0032898291787713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0871411688362297</v>
+        <v>0.087140716901041</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81735167629106</v>
+        <v>1.81735848263387</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0691632820086831</v>
+        <v>0.0691622404963232</v>
       </c>
     </row>
   </sheetData>
